--- a/stock_historical_data/1wk/GAIL.NS.xlsx
+++ b/stock_historical_data/1wk/GAIL.NS.xlsx
@@ -79933,7 +79933,9 @@
       <c r="Q1419" t="n">
         <v>0</v>
       </c>
-      <c r="R1419" t="inlineStr"/>
+      <c r="R1419" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GAIL.NS.xlsx
+++ b/stock_historical_data/1wk/GAIL.NS.xlsx
@@ -75727,7 +75727,9 @@
       <c r="P1420" t="n">
         <v>0</v>
       </c>
-      <c r="Q1420" t="inlineStr"/>
+      <c r="Q1420" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GAIL.NS.xlsx
+++ b/stock_historical_data/1wk/GAIL.NS.xlsx
@@ -80045,7 +80045,9 @@
       <c r="Q1421" t="n">
         <v>0</v>
       </c>
-      <c r="R1421" t="inlineStr"/>
+      <c r="R1421" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GAIL.NS.xlsx
+++ b/stock_historical_data/1wk/GAIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1421"/>
+  <dimension ref="A1:R1423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80049,6 +80049,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1422">
+      <c r="A1422" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>221.8300018310547</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>224.3999938964844</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>214</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>214.7599945068359</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>214.7599945068359</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>74526790</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1422" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1422" t="inlineStr"/>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>212.8999938964844</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>223.1499938964844</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>208.5500030517578</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>219.5500030517578</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>219.5500030517578</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>103383704</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1423" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1423" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/GAIL.NS.xlsx
+++ b/stock_historical_data/1wk/GAIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1423"/>
+  <dimension ref="A1:R1433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -79981,7 +79981,7 @@
         <v>23</v>
       </c>
       <c r="O1420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1420" t="n">
         <v>0</v>
@@ -80101,7 +80101,9 @@
       <c r="Q1422" t="n">
         <v>0</v>
       </c>
-      <c r="R1422" t="inlineStr"/>
+      <c r="R1422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1423">
       <c r="A1423" s="2" t="n">
@@ -80155,7 +80157,549 @@
       <c r="Q1423" t="n">
         <v>0</v>
       </c>
-      <c r="R1423" t="inlineStr"/>
+      <c r="R1423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>220.25</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>226</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>217.2799987792969</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>222.9600067138672</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>222.9600067138672</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>90964886</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1424" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>234.1000061035156</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>219.8600006103516</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>228.7100067138672</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>228.7100067138672</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>113650982</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1425" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1425" t="inlineStr"/>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>229.6000061035156</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>239.1100006103516</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>219.0200042724609</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>219.7599945068359</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>219.7599945068359</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>83731570</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1426" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1426" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1426" t="inlineStr"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>217.8000030517578</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>232.6199951171875</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>209.1499938964844</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>230.6399993896484</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>230.6399993896484</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>80530679</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1427" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1427" t="inlineStr"/>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>246.3000030517578</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>230</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>237.0099945068359</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>237.0099945068359</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>155715671</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1428" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1428" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1428" t="inlineStr"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>230</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>234.0800018310547</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>221</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>227.3800048828125</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>227.3800048828125</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>73096682</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1429" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1429" t="inlineStr"/>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>226.4799957275391</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>234.8999938964844</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>225.0700073242188</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>232.5500030517578</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>232.5500030517578</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>55764272</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1430" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1430" t="inlineStr"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>234</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>241.6499938964844</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>228.8500061035156</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>229.4700012207031</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>229.4700012207031</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>62700534</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1431" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1431" t="inlineStr"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>231.1999969482422</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>239.3300018310547</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>228.6900024414062</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>237.6900024414062</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>237.6900024414062</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>75223802</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1432" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1432" t="inlineStr"/>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>238.6499938964844</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>240.2899932861328</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>221.9499969482422</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>222.8200073242188</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>222.8200073242188</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>56986422</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1433" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1433" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GAIL.NS.xlsx
+++ b/stock_historical_data/1wk/GAIL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1433"/>
+  <dimension ref="A1:R1462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -80213,7 +80213,9 @@
       <c r="Q1424" t="n">
         <v>0</v>
       </c>
-      <c r="R1424" t="inlineStr"/>
+      <c r="R1424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1425">
       <c r="A1425" s="2" t="n">
@@ -80267,7 +80269,9 @@
       <c r="Q1425" t="n">
         <v>0</v>
       </c>
-      <c r="R1425" t="inlineStr"/>
+      <c r="R1425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1426">
       <c r="A1426" s="2" t="n">
@@ -80321,7 +80325,9 @@
       <c r="Q1426" t="n">
         <v>1</v>
       </c>
-      <c r="R1426" t="inlineStr"/>
+      <c r="R1426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1427">
       <c r="A1427" s="2" t="n">
@@ -80375,7 +80381,9 @@
       <c r="Q1427" t="n">
         <v>0</v>
       </c>
-      <c r="R1427" t="inlineStr"/>
+      <c r="R1427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1428">
       <c r="A1428" s="2" t="n">
@@ -80429,7 +80437,9 @@
       <c r="Q1428" t="n">
         <v>0</v>
       </c>
-      <c r="R1428" t="inlineStr"/>
+      <c r="R1428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1429">
       <c r="A1429" s="2" t="n">
@@ -80483,7 +80493,9 @@
       <c r="Q1429" t="n">
         <v>0</v>
       </c>
-      <c r="R1429" t="inlineStr"/>
+      <c r="R1429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1430">
       <c r="A1430" s="2" t="n">
@@ -80537,7 +80549,9 @@
       <c r="Q1430" t="n">
         <v>0</v>
       </c>
-      <c r="R1430" t="inlineStr"/>
+      <c r="R1430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1431">
       <c r="A1431" s="2" t="n">
@@ -80591,7 +80605,9 @@
       <c r="Q1431" t="n">
         <v>0</v>
       </c>
-      <c r="R1431" t="inlineStr"/>
+      <c r="R1431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1432">
       <c r="A1432" s="2" t="n">
@@ -80645,7 +80661,9 @@
       <c r="Q1432" t="n">
         <v>0</v>
       </c>
-      <c r="R1432" t="inlineStr"/>
+      <c r="R1432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1433">
       <c r="A1433" s="2" t="n">
@@ -80699,7 +80717,1517 @@
       <c r="Q1433" t="n">
         <v>0</v>
       </c>
-      <c r="R1433" t="inlineStr"/>
+      <c r="R1433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>214.0082520204017</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>214.8754565018185</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>207.1669199456994</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>210.8959197998047</v>
+      </c>
+      <c r="F1434" t="inlineStr"/>
+      <c r="G1434" t="n">
+        <v>52194482</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1434" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1434" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1434" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1434" t="inlineStr"/>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>211.9847515678449</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>213.3819208535142</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>201.0193538045545</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>204.4303894042969</v>
+      </c>
+      <c r="F1435" t="inlineStr"/>
+      <c r="G1435" t="n">
+        <v>76038009</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1435" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1435" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1435" t="inlineStr"/>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>205.2397813984296</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>229.2325950328741</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>203.9196992464649</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>228.3461151123047</v>
+      </c>
+      <c r="F1436" t="inlineStr"/>
+      <c r="G1436" t="n">
+        <v>103551081</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1436" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1436" t="inlineStr"/>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>225.4747008630407</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>236.073938937799</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>220.8881267709956</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>221.8035125732422</v>
+      </c>
+      <c r="F1437" t="inlineStr"/>
+      <c r="G1437" t="n">
+        <v>86522618</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1437" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1437" t="inlineStr"/>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>223.5475623917534</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>225.7155883201217</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>213.0254116504166</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>221.0422821044922</v>
+      </c>
+      <c r="F1438" t="inlineStr"/>
+      <c r="G1438" t="n">
+        <v>57547849</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1438" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1438" t="inlineStr"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>221.0422865936644</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>225.9564846789156</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>209.431314814888</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>213.3626556396484</v>
+      </c>
+      <c r="F1439" t="inlineStr"/>
+      <c r="G1439" t="n">
+        <v>69723995</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1439" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1439" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1439" t="inlineStr"/>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>214.875452134546</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>215.4054169525811</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>195.0645159404294</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>198.5718994140625</v>
+      </c>
+      <c r="F1440" t="inlineStr"/>
+      <c r="G1440" t="n">
+        <v>46071988</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1440" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1440" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1440" t="inlineStr"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>197.5312452211465</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>201.6553110183148</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>190.834457165198</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>192.8675842285156</v>
+      </c>
+      <c r="F1441" t="inlineStr"/>
+      <c r="G1441" t="n">
+        <v>49373537</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1441" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1441" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1441" t="inlineStr"/>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>192.8772227271449</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>208.5833692417367</v>
+      </c>
+      <c r="D1442" t="n">
+        <v>184.7158082949685</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>196.7314910888672</v>
+      </c>
+      <c r="F1442" t="inlineStr"/>
+      <c r="G1442" t="n">
+        <v>103659561</v>
+      </c>
+      <c r="H1442" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1442" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1442" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1442" t="inlineStr"/>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>194.6405432707318</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>198.6875219229163</v>
+      </c>
+      <c r="D1443" t="n">
+        <v>181.0831478776174</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>182.0081787109375</v>
+      </c>
+      <c r="F1443" t="inlineStr"/>
+      <c r="G1443" t="n">
+        <v>50211958</v>
+      </c>
+      <c r="H1443" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1443" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1443" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1443" t="inlineStr"/>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>183.0777407612473</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>186.5658488013601</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>173.8467665943099</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>185.5926513671875</v>
+      </c>
+      <c r="F1444" t="inlineStr"/>
+      <c r="G1444" t="n">
+        <v>49989769</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1444" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1444" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1444" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1444" t="inlineStr"/>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>190.2081394018595</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>193.8696973174857</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>185.4866664993856</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>192.1930999755859</v>
+      </c>
+      <c r="F1445" t="inlineStr"/>
+      <c r="G1445" t="n">
+        <v>67373561</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1445" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1445" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1445" t="inlineStr"/>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>191.1717056689318</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>205.6252120865284</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>189.8227176177695</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>202.7441558837891</v>
+      </c>
+      <c r="F1446" t="inlineStr"/>
+      <c r="G1446" t="n">
+        <v>58314906</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1446" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1446" t="inlineStr"/>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>202.7345097390429</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>204.1798603732173</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>192.5592436269142</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>197.4348907470703</v>
+      </c>
+      <c r="F1447" t="inlineStr"/>
+      <c r="G1447" t="n">
+        <v>32376804</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1447" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1447" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1447" t="inlineStr"/>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>197.2903603182031</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>197.5312520890434</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>181.8540115259541</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>185.4095764160156</v>
+      </c>
+      <c r="F1448" t="inlineStr"/>
+      <c r="G1448" t="n">
+        <v>73417172</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1448" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1448" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1448" t="inlineStr"/>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>187.1247249218962</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>194.1491372034801</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>184.6483651595263</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>185.4866638183594</v>
+      </c>
+      <c r="F1449" t="inlineStr"/>
+      <c r="G1449" t="n">
+        <v>61029818</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1449" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1449" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1449" t="inlineStr"/>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>185.9684532175851</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>186.7585853093574</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>180.5243048983209</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>184.1280364990234</v>
+      </c>
+      <c r="F1450" t="inlineStr"/>
+      <c r="G1450" t="n">
+        <v>62094204</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1450" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1450" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1450" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1450" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1450" t="inlineStr"/>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>184.417109292924</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>184.686906908516</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>171.2740544508837</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>173.0373840332031</v>
+      </c>
+      <c r="F1451" t="inlineStr"/>
+      <c r="G1451" t="n">
+        <v>76481613</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1451" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1451" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1451" t="inlineStr"/>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>168.7976664726682</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>176.1304122118482</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>165.3962760085216</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>174.3574523925781</v>
+      </c>
+      <c r="F1452" t="inlineStr"/>
+      <c r="G1452" t="n">
+        <v>52659270</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1452" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1452" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1452" t="inlineStr"/>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>174.3574524150588</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>176.910913884982</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>165.974422133228</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>169.4336242675781</v>
+      </c>
+      <c r="F1453" t="inlineStr"/>
+      <c r="G1453" t="n">
+        <v>35668152</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1453" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1453" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1453" t="inlineStr"/>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>166.6970971458245</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>173.923849912262</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>157.3986811341547</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>169.2023773193359</v>
+      </c>
+      <c r="F1454" t="inlineStr"/>
+      <c r="G1454" t="n">
+        <v>138493048</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1454" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1454" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1454" t="inlineStr"/>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>169.587799677304</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>174.3478232252506</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>163.9027600010864</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>164.8181457519531</v>
+      </c>
+      <c r="F1455" t="inlineStr"/>
+      <c r="G1455" t="n">
+        <v>70296662</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1455" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1455" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1455" t="inlineStr"/>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>171.0500030517578</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>171.6399993896484</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>155.5099945068359</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>162.2899932861328</v>
+      </c>
+      <c r="F1456" t="inlineStr"/>
+      <c r="G1456" t="n">
+        <v>81824708</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1456" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1456" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1456" t="inlineStr"/>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>160.3099975585938</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>168.4900054931641</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>157.6000061035156</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>164.2100067138672</v>
+      </c>
+      <c r="F1457" t="inlineStr"/>
+      <c r="G1457" t="n">
+        <v>57883993</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1457" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1457" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1457" t="inlineStr"/>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>165.6900024414062</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>153.6499938964844</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>156.0399932861328</v>
+      </c>
+      <c r="F1458" t="inlineStr"/>
+      <c r="G1458" t="n">
+        <v>47678772</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1458" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1458" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1458" t="inlineStr"/>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>156.0399932861328</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>162.6199951171875</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>150.5200042724609</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>158.1399993896484</v>
+      </c>
+      <c r="F1459" t="inlineStr"/>
+      <c r="G1459" t="n">
+        <v>67249545</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1459" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1459" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1459" t="inlineStr"/>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>158</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>161.6499938964844</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>153</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>157.9600067138672</v>
+      </c>
+      <c r="F1460" t="inlineStr"/>
+      <c r="G1460" t="n">
+        <v>43509675</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1460" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1460" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1460" t="inlineStr"/>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>157.8899993896484</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>177.3300018310547</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>156.4100036621094</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>175.0500030517578</v>
+      </c>
+      <c r="F1461" t="inlineStr"/>
+      <c r="G1461" t="n">
+        <v>64881524</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1461" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1461" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1461" t="inlineStr"/>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>178.7599945068359</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>186.3999938964844</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>172.1999969482422</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>183.0399932861328</v>
+      </c>
+      <c r="F1462" t="inlineStr"/>
+      <c r="G1462" t="n">
+        <v>111754435</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1462" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1462" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
